--- a/data/trans_orig/P16A08-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2315,7 +2315,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4076,7 +4076,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5837,7 +5837,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A08-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>19098</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11072</v>
+        <v>11183</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30254</v>
+        <v>30962</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04031119419074023</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02337028785132201</v>
+        <v>0.02360431848629559</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06385734950988536</v>
+        <v>0.06535110337226253</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>7817</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3723</v>
+        <v>3670</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13880</v>
+        <v>14112</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0254876275304589</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0121396522354914</v>
+        <v>0.01196595537553107</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04526007150380428</v>
+        <v>0.04601400024445397</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -786,19 +786,19 @@
         <v>26915</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18136</v>
+        <v>18190</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40066</v>
+        <v>38677</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0344862760238046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02323800196055591</v>
+        <v>0.02330659849818567</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05133706106602076</v>
+        <v>0.04955676541519528</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>454678</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443522</v>
+        <v>442814</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>462704</v>
+        <v>462593</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9596888058092597</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9361426504901145</v>
+        <v>0.9346488966277372</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.976629712148678</v>
+        <v>0.9763956815137044</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>290</v>
@@ -836,19 +836,19 @@
         <v>298863</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>292800</v>
+        <v>292568</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>302957</v>
+        <v>303010</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9745123724695411</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9547399284961957</v>
+        <v>0.9539859997555464</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9878603477645087</v>
+        <v>0.9880340446244691</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>728</v>
@@ -857,19 +857,19 @@
         <v>753542</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>740391</v>
+        <v>741780</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>762321</v>
+        <v>762267</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9655137239761954</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9486629389339787</v>
+        <v>0.9504432345848053</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9767619980394439</v>
+        <v>0.9766934015018144</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6314</v>
+        <v>6396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005462375521121578</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01720623915602893</v>
+        <v>0.01743173923199161</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -982,19 +982,19 @@
         <v>25374</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15790</v>
+        <v>16719</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37222</v>
+        <v>36235</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06823565340810306</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04246147561105128</v>
+        <v>0.04496081608996323</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1000956526101283</v>
+        <v>0.0974410862324321</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -1003,19 +1003,19 @@
         <v>27379</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18137</v>
+        <v>18200</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41630</v>
+        <v>41605</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03705848809011419</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02454923295858567</v>
+        <v>0.02463465428223391</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05634810855407439</v>
+        <v>0.05631444364101901</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>364930</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>360620</v>
+        <v>360538</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>366934</v>
@@ -1041,7 +1041,7 @@
         <v>0.9945376244788784</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9827937608439715</v>
+        <v>0.9825682607680097</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>346491</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>334643</v>
+        <v>335630</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>356075</v>
+        <v>355146</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9317643465918969</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8999043473898715</v>
+        <v>0.9025589137675679</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9575385243889475</v>
+        <v>0.9550391839100367</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>688</v>
@@ -1074,19 +1074,19 @@
         <v>711420</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>697169</v>
+        <v>697194</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>720662</v>
+        <v>720599</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9629415119098859</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9436518914459255</v>
+        <v>0.943685556358981</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9754507670414142</v>
+        <v>0.975365345717766</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>14462</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8719</v>
+        <v>8248</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24355</v>
+        <v>24606</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02666280805960072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01607530405278853</v>
+        <v>0.0152060149343459</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04490403284901343</v>
+        <v>0.04536534774290105</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>3021</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8085</v>
+        <v>8681</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01800757768936991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005319730115021109</v>
+        <v>0.005367514914285823</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04819033794294089</v>
+        <v>0.05173694882888721</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1220,19 +1220,19 @@
         <v>17483</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10337</v>
+        <v>10418</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28745</v>
+        <v>26861</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02461796103210374</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01455575871593808</v>
+        <v>0.01466992599967518</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04047673043655062</v>
+        <v>0.03782352599702751</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>527927</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>518034</v>
+        <v>517783</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>533670</v>
+        <v>534141</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9733371919403992</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9550959671509861</v>
+        <v>0.9546346522570991</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9839246959472113</v>
+        <v>0.9847939850656541</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>161</v>
@@ -1270,19 +1270,19 @@
         <v>164761</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159697</v>
+        <v>159101</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166889</v>
+        <v>166881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9819924223106301</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9518096620570584</v>
+        <v>0.9482630511711104</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9946802698849788</v>
+        <v>0.9946324850857142</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>679</v>
@@ -1291,19 +1291,19 @@
         <v>692688</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>681426</v>
+        <v>683310</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>699834</v>
+        <v>699753</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9753820389678962</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9595232695634504</v>
+        <v>0.9621764740029726</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9854442412840625</v>
+        <v>0.9853300740003249</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>29638</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19132</v>
+        <v>19634</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42485</v>
+        <v>43543</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0239335920755889</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01545002162438672</v>
+        <v>0.01585537963504301</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03430813675834586</v>
+        <v>0.03516235637618755</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1416,19 +1416,19 @@
         <v>29913</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21034</v>
+        <v>20335</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42167</v>
+        <v>42845</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04187810465206453</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02944797477535132</v>
+        <v>0.02846873855805229</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05903386154919033</v>
+        <v>0.05998282589995899</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -1437,19 +1437,19 @@
         <v>59551</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45865</v>
+        <v>45840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76157</v>
+        <v>78875</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03049785130626019</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0234890165419088</v>
+        <v>0.0234761320145316</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03900244200314856</v>
+        <v>0.04039426809272387</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1208696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1195849</v>
+        <v>1194791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1219202</v>
+        <v>1218700</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9760664079244111</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9656918632416541</v>
+        <v>0.9648376436238111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9845499783756132</v>
+        <v>0.9841446203649566</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>664</v>
@@ -1487,19 +1487,19 @@
         <v>684372</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>672118</v>
+        <v>671440</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>693251</v>
+        <v>693950</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9581218953479355</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9409661384508098</v>
+        <v>0.940017174100041</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9705520252246487</v>
+        <v>0.9715312614419477</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1861</v>
@@ -1508,19 +1508,19 @@
         <v>1893069</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1876463</v>
+        <v>1873745</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1906755</v>
+        <v>1906780</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9695021486937399</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9609975579968515</v>
+        <v>0.9596057319072762</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9765109834580914</v>
+        <v>0.9765238679854685</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>5835</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2031</v>
+        <v>2619</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12775</v>
+        <v>12606</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.016692156284501</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005809322013726296</v>
+        <v>0.007493608502336152</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03654865893761439</v>
+        <v>0.03606619303473371</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1633,19 +1633,19 @@
         <v>19415</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12193</v>
+        <v>11761</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30702</v>
+        <v>29944</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03413698771479136</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02143872313785957</v>
+        <v>0.02067858743890884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05398199948726706</v>
+        <v>0.05264798011734877</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1654,19 +1654,19 @@
         <v>25250</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16455</v>
+        <v>16852</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36928</v>
+        <v>37751</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02749679472526669</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0179195506139008</v>
+        <v>0.01835175699362266</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04021381318438693</v>
+        <v>0.04111056107050925</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>343702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>336762</v>
+        <v>336931</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>347506</v>
+        <v>346918</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.983307843715499</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9634513410623856</v>
+        <v>0.9639338069652663</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9941906779862738</v>
+        <v>0.9925063914976638</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>521</v>
@@ -1704,19 +1704,19 @@
         <v>549337</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>538050</v>
+        <v>538808</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>556559</v>
+        <v>556991</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9658630122852087</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9460180005127331</v>
+        <v>0.9473520198826514</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9785612768621403</v>
+        <v>0.9793214125610913</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>854</v>
@@ -1725,19 +1725,19 @@
         <v>893039</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>881361</v>
+        <v>880538</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>901834</v>
+        <v>901437</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9725032052747333</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9597861868156131</v>
+        <v>0.9588894389294904</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9820804493860992</v>
+        <v>0.9816482430063772</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>7176</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3390</v>
+        <v>3421</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13121</v>
+        <v>13412</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0240644273834087</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01136752875711275</v>
+        <v>0.01147346374132203</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04400087121224566</v>
+        <v>0.04497475116086982</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -1850,19 +1850,19 @@
         <v>46736</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35721</v>
+        <v>34274</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60881</v>
+        <v>61077</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03742577518292542</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02860519805711611</v>
+        <v>0.02744603392118932</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04875317077644979</v>
+        <v>0.04891042178721503</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -1871,19 +1871,19 @@
         <v>53912</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>39751</v>
+        <v>40282</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68815</v>
+        <v>68517</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03485016865356359</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02569611075970027</v>
+        <v>0.02603915160032624</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04448414666780785</v>
+        <v>0.0442914430322978</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>291025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>285080</v>
+        <v>284789</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>294811</v>
+        <v>294780</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9759355726165913</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9559991287877545</v>
+        <v>0.9550252488391303</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9886324712428873</v>
+        <v>0.9885265362586781</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1192</v>
@@ -1921,19 +1921,19 @@
         <v>1202024</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1187879</v>
+        <v>1187683</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1213039</v>
+        <v>1214486</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9625742248170746</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9512468292235503</v>
+        <v>0.9510895782127852</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.971394801942884</v>
+        <v>0.9725539660788107</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1490</v>
@@ -1942,19 +1942,19 @@
         <v>1493048</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1478145</v>
+        <v>1478443</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1507209</v>
+        <v>1506678</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9651498313464364</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9555158533321921</v>
+        <v>0.955708556967702</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9743038892402995</v>
+        <v>0.9739608483996738</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>78213</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62000</v>
+        <v>60970</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97632</v>
+        <v>97213</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0239243432843167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01896500523420135</v>
+        <v>0.01864991207825832</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02986454497539652</v>
+        <v>0.02973628662062289</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>128</v>
@@ -2067,19 +2067,19 @@
         <v>132277</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>109927</v>
+        <v>111624</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>156986</v>
+        <v>157796</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03915680168710263</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03254083171479083</v>
+        <v>0.03304321406395152</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04647140677032281</v>
+        <v>0.04671103673341796</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>202</v>
@@ -2088,19 +2088,19 @@
         <v>210489</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>183024</v>
+        <v>184423</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>241337</v>
+        <v>245788</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0316654059338364</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02753357933924118</v>
+        <v>0.02774404991283259</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03630605960254336</v>
+        <v>0.03697564430964868</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3190959</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3171540</v>
+        <v>3171959</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3207172</v>
+        <v>3208202</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9760756567156833</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9701354550246036</v>
+        <v>0.9702637133793773</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9810349947657988</v>
+        <v>0.9813500879217417</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3168</v>
@@ -2138,19 +2138,19 @@
         <v>3245847</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3221138</v>
+        <v>3220328</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3268197</v>
+        <v>3266500</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9608431983128973</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9535285932296774</v>
+        <v>0.9532889632665819</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9674591682852093</v>
+        <v>0.9669567859360484</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6300</v>
@@ -2159,19 +2159,19 @@
         <v>6436807</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6405959</v>
+        <v>6401508</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6464272</v>
+        <v>6462873</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9683345940661636</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9636939403974567</v>
+        <v>0.9630243556903516</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9724664206607589</v>
+        <v>0.9722559500871677</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>18505</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11586</v>
+        <v>11000</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29531</v>
+        <v>28930</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04232449097164105</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02650087951286175</v>
+        <v>0.02515948930621095</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06754477561419411</v>
+        <v>0.06616991890373403</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -2526,19 +2526,19 @@
         <v>17687</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10436</v>
+        <v>10514</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26435</v>
+        <v>27888</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05644104694429517</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03330320439862767</v>
+        <v>0.03355089845583589</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08435838607898882</v>
+        <v>0.08899470072366061</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -2547,19 +2547,19 @@
         <v>36191</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26271</v>
+        <v>25937</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50211</v>
+        <v>50606</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04821816732645796</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03500168998478859</v>
+        <v>0.03455599696355012</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06689664831689139</v>
+        <v>0.06742318675208098</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>418706</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407680</v>
+        <v>408281</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425625</v>
+        <v>426211</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.957675509028359</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.932455224385806</v>
+        <v>0.933830081096266</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9734991204871383</v>
+        <v>0.9748405106937891</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>265</v>
@@ -2597,19 +2597,19 @@
         <v>295680</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>286932</v>
+        <v>285479</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>302931</v>
+        <v>302853</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9435589530557048</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9156416139210113</v>
+        <v>0.91100529927634</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9666967956013733</v>
+        <v>0.9664491015441642</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>651</v>
@@ -2618,19 +2618,19 @@
         <v>714386</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>700366</v>
+        <v>699971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>724306</v>
+        <v>724640</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.951781832673542</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9331033516831085</v>
+        <v>0.932576813247919</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9649983100152114</v>
+        <v>0.9654440030364499</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>19348</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11397</v>
+        <v>12131</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31247</v>
+        <v>30924</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04639495646326366</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02732921521698</v>
+        <v>0.02908995562202747</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07492932822997211</v>
+        <v>0.07415447026632335</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -2743,19 +2743,19 @@
         <v>23457</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15934</v>
+        <v>14822</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34588</v>
+        <v>34360</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06995544943925337</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04751810697229827</v>
+        <v>0.0442043425944323</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1031512876678424</v>
+        <v>0.1024695172983598</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -2764,19 +2764,19 @@
         <v>42805</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31058</v>
+        <v>30377</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59666</v>
+        <v>57232</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05689588530358809</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04128163582525795</v>
+        <v>0.04037753253335368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07930844101742994</v>
+        <v>0.07607266464359398</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>397670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>385771</v>
+        <v>386094</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>405621</v>
+        <v>404887</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9536050435367364</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9250706717700293</v>
+        <v>0.9258455297336764</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9726707847830199</v>
+        <v>0.9709100443779725</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>281</v>
@@ -2814,19 +2814,19 @@
         <v>311858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>300727</v>
+        <v>300955</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>319381</v>
+        <v>320493</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9300445505607466</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8968487123321577</v>
+        <v>0.8975304827016402</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9524818930277019</v>
+        <v>0.9557956574055678</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>638</v>
@@ -2835,19 +2835,19 @@
         <v>709528</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>692667</v>
+        <v>695101</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>721275</v>
+        <v>721956</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9431041146964119</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.920691558982571</v>
+        <v>0.923927335356406</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9587183641747423</v>
+        <v>0.9596224674666466</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>20299</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11407</v>
+        <v>12177</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33342</v>
+        <v>31946</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03240867815159301</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01821238681561083</v>
+        <v>0.01944179809961389</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05323255115630337</v>
+        <v>0.0510051089747966</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -2960,19 +2960,19 @@
         <v>13211</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7125</v>
+        <v>6963</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23289</v>
+        <v>21416</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05121786126319902</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02762352117457378</v>
+        <v>0.02699412262720411</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09029080260865498</v>
+        <v>0.08302607245977496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -2981,19 +2981,19 @@
         <v>33510</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22777</v>
+        <v>23562</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48739</v>
+        <v>47820</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03789520009235259</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02575779105284186</v>
+        <v>0.02664592164971649</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05511712962909179</v>
+        <v>0.05407862699908779</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>606039</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>592996</v>
+        <v>594392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>614931</v>
+        <v>614161</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.967591321848407</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9467674488436966</v>
+        <v>0.9489948910252033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9817876131843891</v>
+        <v>0.9805582019003861</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>229</v>
@@ -3031,19 +3031,19 @@
         <v>244727</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>234649</v>
+        <v>236522</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250813</v>
+        <v>250975</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.948782138736801</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9097091973913451</v>
+        <v>0.916973927540225</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9723764788254262</v>
+        <v>0.9730058773727959</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>801</v>
@@ -3052,19 +3052,19 @@
         <v>850766</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>835537</v>
+        <v>836456</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>861499</v>
+        <v>860714</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9621047999076474</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9448828703709085</v>
+        <v>0.9459213730009123</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9742422089471582</v>
+        <v>0.9733540783502838</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>27655</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17648</v>
+        <v>18331</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40853</v>
+        <v>39384</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02389612987200051</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01524937609987591</v>
+        <v>0.0158391289121368</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03529990555055271</v>
+        <v>0.03403018420614741</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -3177,19 +3177,19 @@
         <v>55311</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41740</v>
+        <v>42259</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73673</v>
+        <v>71192</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0721458086688152</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05444402945803089</v>
+        <v>0.05512130257181257</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09609642979090195</v>
+        <v>0.09286000005888309</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -3198,19 +3198,19 @@
         <v>82966</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67573</v>
+        <v>64877</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104687</v>
+        <v>103770</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04312248091193169</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03512161470593125</v>
+        <v>0.03372013843588336</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05441194221936207</v>
+        <v>0.05393533082434548</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1129660</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1116462</v>
+        <v>1117931</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1139667</v>
+        <v>1138984</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9761038701279995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9647000944494473</v>
+        <v>0.9659698157938525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.984750623900124</v>
+        <v>0.9841608710878631</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>660</v>
@@ -3248,19 +3248,19 @@
         <v>711346</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>692984</v>
+        <v>695465</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>724917</v>
+        <v>724398</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9278541913311847</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.903903570209098</v>
+        <v>0.9071399999411166</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9455559705419689</v>
+        <v>0.9448786974281874</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1716</v>
@@ -3269,19 +3269,19 @@
         <v>1841007</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1819286</v>
+        <v>1820203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1856400</v>
+        <v>1859096</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9568775190880683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9455880577806379</v>
+        <v>0.9460646691756546</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9648783852940688</v>
+        <v>0.9662798615641166</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>14940</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8284</v>
+        <v>8669</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24186</v>
+        <v>23865</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02925986960701127</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01622391672440121</v>
+        <v>0.01697786445880675</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04736830182178711</v>
+        <v>0.04673932724839012</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -3394,19 +3394,19 @@
         <v>30606</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19962</v>
+        <v>21533</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43249</v>
+        <v>43401</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04035757156323841</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0263220676731661</v>
+        <v>0.02839424802075447</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05702924694897467</v>
+        <v>0.05722930347130306</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -3415,19 +3415,19 @@
         <v>45546</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33529</v>
+        <v>33145</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60135</v>
+        <v>59944</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03589216171316394</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02642266985744822</v>
+        <v>0.02612012367280631</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04738895698914346</v>
+        <v>0.04723842168627859</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>495656</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>486410</v>
+        <v>486731</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>502312</v>
+        <v>501927</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9707401303929887</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9526316981782128</v>
+        <v>0.95326067275161</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9837760832755987</v>
+        <v>0.9830221355411934</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>672</v>
@@ -3465,19 +3465,19 @@
         <v>727762</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>715119</v>
+        <v>714967</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>738406</v>
+        <v>736835</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9596424284367616</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9429707530510253</v>
+        <v>0.9427706965286969</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.973677932326834</v>
+        <v>0.9716057519792456</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1145</v>
@@ -3486,19 +3486,19 @@
         <v>1223418</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1208829</v>
+        <v>1209020</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1235435</v>
+        <v>1235819</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9641078382868361</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9526110430108562</v>
+        <v>0.9527615783137211</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9735773301425517</v>
+        <v>0.9738798763271936</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>15863</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9162</v>
+        <v>8926</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26118</v>
+        <v>25197</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05967166820759234</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03446495869377635</v>
+        <v>0.03357764965414984</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09824817825721639</v>
+        <v>0.09478149958599376</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -3611,19 +3611,19 @@
         <v>54934</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41122</v>
+        <v>43259</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70120</v>
+        <v>74389</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04970241876110621</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03720592859199804</v>
+        <v>0.03913922074706283</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06344230233078287</v>
+        <v>0.06730451864806625</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>67</v>
@@ -3632,19 +3632,19 @@
         <v>70797</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55644</v>
+        <v>56054</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>90568</v>
+        <v>88611</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05163534901599037</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0405835002405535</v>
+        <v>0.04088275146533527</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06605522502333913</v>
+        <v>0.0646278063968725</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>249978</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>239723</v>
+        <v>240644</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>256679</v>
+        <v>256915</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9403283317924077</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9017518217427836</v>
+        <v>0.9052185004140062</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9655350413062236</v>
+        <v>0.9664223503458502</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>988</v>
@@ -3682,19 +3682,19 @@
         <v>1050322</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1035136</v>
+        <v>1030867</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1064134</v>
+        <v>1061997</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9502975812388937</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9365576976692171</v>
+        <v>0.9326954813519339</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9627940714080019</v>
+        <v>0.9608607792529372</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1237</v>
@@ -3703,19 +3703,19 @@
         <v>1300301</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1280530</v>
+        <v>1282487</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1315454</v>
+        <v>1315044</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9483646509840097</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9339447749766606</v>
+        <v>0.9353721936031271</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9594164997594464</v>
+        <v>0.9591172485346645</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>116610</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>95616</v>
+        <v>95922</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139755</v>
+        <v>141111</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03415308793698588</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02800431173007447</v>
+        <v>0.02809397925797416</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04093210161564316</v>
+        <v>0.04132908585349757</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>183</v>
@@ -3828,19 +3828,19 @@
         <v>195206</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>168199</v>
+        <v>167437</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>224866</v>
+        <v>223729</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05519119520171431</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04755533410045844</v>
+        <v>0.04734004306541165</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06357715725707033</v>
+        <v>0.06325553521243227</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>288</v>
@@ -3849,19 +3849,19 @@
         <v>311815</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>276702</v>
+        <v>274653</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>348441</v>
+        <v>345412</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04485764201633791</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03980618470518811</v>
+        <v>0.03951151627266308</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0501266054916429</v>
+        <v>0.04969077032555942</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3297709</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3274564</v>
+        <v>3273208</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3318703</v>
+        <v>3318397</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9658469120630141</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9590678983843565</v>
+        <v>0.9586709141465022</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9719956882699256</v>
+        <v>0.9719060207420257</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3095</v>
@@ -3899,19 +3899,19 @@
         <v>3341696</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3312036</v>
+        <v>3313173</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3368703</v>
+        <v>3369465</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9448088047982857</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9364228427429296</v>
+        <v>0.9367444647875678</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9524446658995416</v>
+        <v>0.9526599569345885</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6188</v>
@@ -3920,19 +3920,19 @@
         <v>6639406</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6602780</v>
+        <v>6605809</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6674519</v>
+        <v>6676568</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9551423579836621</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9498733945083569</v>
+        <v>0.9503092296744406</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9601938152948118</v>
+        <v>0.960488483727337</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>15421</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8519</v>
+        <v>8601</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24105</v>
+        <v>25650</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0359391216770254</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01985272786197086</v>
+        <v>0.02004351509451643</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05617578993666751</v>
+        <v>0.05977759840875857</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -4287,19 +4287,19 @@
         <v>16488</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9862</v>
+        <v>9811</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25970</v>
+        <v>26095</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04750957137749031</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02841622166960622</v>
+        <v>0.02826805092371907</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07482974860778296</v>
+        <v>0.07518845354726864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -4308,19 +4308,19 @@
         <v>31910</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22028</v>
+        <v>22121</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44374</v>
+        <v>45967</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04111286037457549</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02838163847094098</v>
+        <v>0.02850126733786945</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05717249025756526</v>
+        <v>0.05922449900232844</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>413671</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>404987</v>
+        <v>403442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>420573</v>
+        <v>420491</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9640608783229746</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9438242100633325</v>
+        <v>0.9402224015912407</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9801472721380291</v>
+        <v>0.9799564849054834</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>317</v>
@@ -4358,19 +4358,19 @@
         <v>330567</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>321085</v>
+        <v>320960</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>337193</v>
+        <v>337244</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9524904286225097</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9251702513922171</v>
+        <v>0.9248115464527311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9715837783303939</v>
+        <v>0.9717319490762807</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>698</v>
@@ -4379,19 +4379,19 @@
         <v>744237</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>731773</v>
+        <v>730180</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>754119</v>
+        <v>754026</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9588871396254245</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9428275097424349</v>
+        <v>0.9407755009976716</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9716183615290592</v>
+        <v>0.9714987326621306</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>13737</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7495</v>
+        <v>8131</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23401</v>
+        <v>24288</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03641647469197185</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01986950558537276</v>
+        <v>0.02155528279820501</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06203378663437324</v>
+        <v>0.064385399917561</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -4504,19 +4504,19 @@
         <v>20440</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13180</v>
+        <v>12549</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30196</v>
+        <v>30589</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05490706361731139</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03540302719302277</v>
+        <v>0.03370921588404244</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08111270312457658</v>
+        <v>0.08216938557042008</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -4525,19 +4525,19 @@
         <v>34178</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24128</v>
+        <v>24289</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48650</v>
+        <v>47423</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0456006635580646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03219187104890951</v>
+        <v>0.03240757479678918</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06491002859642901</v>
+        <v>0.06327258184206307</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>363490</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>353826</v>
+        <v>352939</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>369732</v>
+        <v>369096</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9635835253080282</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9379662133656268</v>
+        <v>0.9356146000824381</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9801304944146273</v>
+        <v>0.978444717201795</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>332</v>
@@ -4575,19 +4575,19 @@
         <v>351833</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>342077</v>
+        <v>341684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>359093</v>
+        <v>359724</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9450929363826887</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9188872968754234</v>
+        <v>0.9178306144295799</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9645969728069772</v>
+        <v>0.9662907841159575</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>673</v>
@@ -4596,19 +4596,19 @@
         <v>715322</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>700850</v>
+        <v>702077</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>725372</v>
+        <v>725211</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9543993364419354</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.935089971403571</v>
+        <v>0.936727418157937</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9678081289510907</v>
+        <v>0.9675924252032109</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>13139</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7062</v>
+        <v>7151</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21759</v>
+        <v>22734</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02517509261418368</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01353000768948398</v>
+        <v>0.01370122639237253</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04169033595172855</v>
+        <v>0.04355834942494258</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -4721,19 +4721,19 @@
         <v>13665</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7693</v>
+        <v>7640</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22884</v>
+        <v>22781</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08226084065912842</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04630828662886622</v>
+        <v>0.04599035128471111</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1377562134684197</v>
+        <v>0.1371339292946938</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -4742,19 +4742,19 @@
         <v>26805</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18356</v>
+        <v>17407</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40140</v>
+        <v>37495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03895814716426146</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02667825680127095</v>
+        <v>0.02529950967127216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05834034645186899</v>
+        <v>0.05449596172048789</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>508775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>500155</v>
+        <v>499180</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>514852</v>
+        <v>514763</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9748249073858163</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9583096640482714</v>
+        <v>0.9564416505750575</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.986469992310516</v>
+        <v>0.9862987736076275</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>140</v>
@@ -4792,19 +4792,19 @@
         <v>152458</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>143239</v>
+        <v>143342</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158430</v>
+        <v>158483</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9177391593408716</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8622437865315804</v>
+        <v>0.8628660707053063</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9536917133711338</v>
+        <v>0.9540096487152889</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>630</v>
@@ -4813,19 +4813,19 @@
         <v>661231</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>647896</v>
+        <v>650541</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>669680</v>
+        <v>670629</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9610418528357385</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9416596535481309</v>
+        <v>0.945504038279512</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.973321743198729</v>
+        <v>0.9747004903287279</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>27731</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18108</v>
+        <v>19070</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39411</v>
+        <v>40300</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02412158455639806</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01575130267629735</v>
+        <v>0.01658789698177591</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03428130975747021</v>
+        <v>0.03505412623735896</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -4938,19 +4938,19 @@
         <v>49889</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37086</v>
+        <v>37373</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66357</v>
+        <v>65560</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06040723054927537</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04490498645683448</v>
+        <v>0.0452523896812921</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08034720595327763</v>
+        <v>0.07938254757894103</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -4959,19 +4959,19 @@
         <v>77620</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61441</v>
+        <v>60252</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96958</v>
+        <v>96143</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03929102175273925</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03110152039743224</v>
+        <v>0.03049964877604419</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04907963708989972</v>
+        <v>0.04866752302075358</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1121907</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1110227</v>
+        <v>1109338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1131530</v>
+        <v>1130568</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.975878415443602</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9657186902425299</v>
+        <v>0.964945873762641</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9842486973237027</v>
+        <v>0.9834121030182241</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>751</v>
@@ -5009,19 +5009,19 @@
         <v>775987</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>759519</v>
+        <v>760316</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>788790</v>
+        <v>788503</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9395927694507247</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9196527940467224</v>
+        <v>0.9206174524210586</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9550950135431655</v>
+        <v>0.9547476103187078</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1827</v>
@@ -5030,19 +5030,19 @@
         <v>1897894</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1878556</v>
+        <v>1879371</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1914073</v>
+        <v>1915262</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9607089782472608</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9509203629101001</v>
+        <v>0.9513324769792464</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9688984796025676</v>
+        <v>0.9695003512239558</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>20377</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12514</v>
+        <v>12797</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31857</v>
+        <v>31351</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03282834992809924</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02016058393079932</v>
+        <v>0.02061665259323141</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05132425894254818</v>
+        <v>0.05050852090337031</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -5155,19 +5155,19 @@
         <v>38240</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26391</v>
+        <v>26654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52917</v>
+        <v>51286</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0517983832254164</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03574811792028421</v>
+        <v>0.0361049845227541</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07167943287674566</v>
+        <v>0.06947012077839944</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -5176,19 +5176,19 @@
         <v>58617</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44553</v>
+        <v>44203</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75228</v>
+        <v>76416</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04313374424958167</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03278523095058831</v>
+        <v>0.03252759349423933</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05535756503580345</v>
+        <v>0.05623180111436644</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>600329</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>588849</v>
+        <v>589355</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>608192</v>
+        <v>607909</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9671716500719008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9486757410574531</v>
+        <v>0.9494914790966301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9798394160692007</v>
+        <v>0.9793833474067686</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>664</v>
@@ -5226,19 +5226,19 @@
         <v>700004</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>685327</v>
+        <v>686958</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>711853</v>
+        <v>711590</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9482016167745836</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9283205671232544</v>
+        <v>0.9305298792216007</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9642518820797158</v>
+        <v>0.9638950154772459</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1241</v>
@@ -5247,19 +5247,19 @@
         <v>1300333</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1283722</v>
+        <v>1282534</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1314397</v>
+        <v>1314747</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9568662557504183</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9446424349641965</v>
+        <v>0.9437681988856335</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9672147690494116</v>
+        <v>0.9674724065057604</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>13830</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7970</v>
+        <v>7796</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22876</v>
+        <v>23288</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04816513337813295</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02775666602226564</v>
+        <v>0.02714890715012779</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07966794095005379</v>
+        <v>0.08110181457142851</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -5372,19 +5372,19 @@
         <v>50786</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36756</v>
+        <v>36973</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66214</v>
+        <v>65820</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04693606366381322</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03396946227459133</v>
+        <v>0.03417059933608718</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0611947615110327</v>
+        <v>0.06083030591273707</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -5393,19 +5393,19 @@
         <v>64616</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48845</v>
+        <v>50139</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81797</v>
+        <v>82016</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04719382669136319</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0356747177160032</v>
+        <v>0.03662016878757755</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05974167244498943</v>
+        <v>0.05990162336582282</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>273315</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264269</v>
+        <v>263857</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>279175</v>
+        <v>279349</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.951834866621867</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9203320590499462</v>
+        <v>0.9188981854285714</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9722433339777343</v>
+        <v>0.9728510928498723</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>946</v>
@@ -5443,19 +5443,19 @@
         <v>1031239</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1015811</v>
+        <v>1016205</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1045269</v>
+        <v>1045052</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9530639363361868</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9388052384889668</v>
+        <v>0.9391696940872629</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9660305377254087</v>
+        <v>0.9658294006639129</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1205</v>
@@ -5464,19 +5464,19 @@
         <v>1304554</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1287373</v>
+        <v>1287154</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1320325</v>
+        <v>1319031</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9528061733086368</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9402583275550105</v>
+        <v>0.9400983766341772</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9643252822839968</v>
+        <v>0.9633798312124224</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>104236</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>84829</v>
+        <v>85875</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127852</v>
+        <v>126357</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03078691169790578</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02505484897761013</v>
+        <v>0.02536396918833972</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03776221863061033</v>
+        <v>0.0373205309660961</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>176</v>
@@ -5589,19 +5589,19 @@
         <v>189509</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>161308</v>
+        <v>162777</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>217981</v>
+        <v>217266</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05366100347908467</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04567556151820038</v>
+        <v>0.04609157773740445</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06172301516870443</v>
+        <v>0.06152064347287674</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>276</v>
@@ -5610,19 +5610,19 @@
         <v>293745</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>262143</v>
+        <v>260221</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>330949</v>
+        <v>330428</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04246514415516973</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03789663548359792</v>
+        <v>0.03761872380580373</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0478434861975993</v>
+        <v>0.0477681956501913</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3281486</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3257870</v>
+        <v>3259365</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3300893</v>
+        <v>3299847</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9692130883020942</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9622377813693896</v>
+        <v>0.9626794690339036</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9749451510223898</v>
+        <v>0.9746360308116601</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3150</v>
@@ -5660,19 +5660,19 @@
         <v>3342087</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3313615</v>
+        <v>3314330</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3370288</v>
+        <v>3368819</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9463389965209154</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9382769848312956</v>
+        <v>0.9384793565271236</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9543244384817997</v>
+        <v>0.953908422262596</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6274</v>
@@ -5681,19 +5681,19 @@
         <v>6623573</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6586369</v>
+        <v>6586890</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6655175</v>
+        <v>6657097</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9575348558448302</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9521565138024007</v>
+        <v>0.9522318043498089</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9621033645164021</v>
+        <v>0.9623812761941967</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>17075</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9374</v>
+        <v>8301</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30317</v>
+        <v>28612</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03101145437948985</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01702406467836893</v>
+        <v>0.01507546800322083</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05506080701739674</v>
+        <v>0.05196296721621782</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -6048,19 +6048,19 @@
         <v>27104</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18939</v>
+        <v>19031</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38774</v>
+        <v>37558</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05549337221637056</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03877757321079774</v>
+        <v>0.03896483009983814</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0793875840871939</v>
+        <v>0.07689774110575262</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -6069,19 +6069,19 @@
         <v>44179</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32354</v>
+        <v>32083</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60051</v>
+        <v>58945</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04251953878117699</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03113876032926826</v>
+        <v>0.0308777119008746</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05779544770400736</v>
+        <v>0.05673102993170513</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>533543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>520301</v>
+        <v>522006</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>541244</v>
+        <v>542317</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9689885456205103</v>
+        <v>0.9689885456205101</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9449391929826015</v>
+        <v>0.9480370327837823</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.982975935321631</v>
+        <v>0.984924531996779</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>651</v>
@@ -6119,19 +6119,19 @@
         <v>461307</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>449637</v>
+        <v>450853</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>469472</v>
+        <v>469380</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9445066277836295</v>
+        <v>0.9445066277836294</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9206124159128053</v>
+        <v>0.9231022588942475</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9612224267892014</v>
+        <v>0.9610351699001619</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1190</v>
@@ -6140,19 +6140,19 @@
         <v>994850</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>978978</v>
+        <v>980084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1006675</v>
+        <v>1006946</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.957480461218823</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9422045522959924</v>
+        <v>0.9432689700682949</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9688612396707318</v>
+        <v>0.9691222880991254</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>16066</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9462</v>
+        <v>8994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27903</v>
+        <v>26599</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03324773788385393</v>
+        <v>0.03324773788385392</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.019580714375246</v>
+        <v>0.01861253441546397</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0577451483805133</v>
+        <v>0.0550456998414472</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -6265,19 +6265,19 @@
         <v>31710</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23571</v>
+        <v>23500</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44511</v>
+        <v>43726</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0749381159313508</v>
+        <v>0.07493811593135082</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05570511247132108</v>
+        <v>0.0555375687129686</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1051916820920986</v>
+        <v>0.1033366443252004</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -6286,19 +6286,19 @@
         <v>47775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36199</v>
+        <v>35933</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62798</v>
+        <v>61331</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05271139785831663</v>
+        <v>0.05271139785831664</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03993885314104649</v>
+        <v>0.03964557958899655</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06928651518314857</v>
+        <v>0.06766783557373086</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>467146</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455309</v>
+        <v>456613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>473750</v>
+        <v>474218</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9667522621161461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9422548516194865</v>
+        <v>0.9449543001585526</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9804192856247541</v>
+        <v>0.981387465584536</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>548</v>
@@ -6336,19 +6336,19 @@
         <v>391433</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>378632</v>
+        <v>379417</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>399572</v>
+        <v>399643</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9250618840686491</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8948083179079015</v>
+        <v>0.8966633556747997</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9442948875286791</v>
+        <v>0.9444624312870313</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1014</v>
@@ -6357,19 +6357,19 @@
         <v>858580</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>843557</v>
+        <v>845024</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>870156</v>
+        <v>870422</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9472886021416834</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9307134848168515</v>
+        <v>0.9323321644262691</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9600611468589535</v>
+        <v>0.9603544204110034</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>20539</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11789</v>
+        <v>12148</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31058</v>
+        <v>32609</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04355067104184229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02499763431370245</v>
+        <v>0.02575877652208798</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06585431887004507</v>
+        <v>0.06914404400662658</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -6482,19 +6482,19 @@
         <v>10329</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5860</v>
+        <v>5877</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16205</v>
+        <v>16049</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05508925781765991</v>
+        <v>0.0550892578176599</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0312512351500138</v>
+        <v>0.03134554481901295</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08642858167379359</v>
+        <v>0.08559661928988835</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -6503,19 +6503,19 @@
         <v>30868</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22374</v>
+        <v>22065</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46922</v>
+        <v>43934</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04683306241059745</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0339465681608859</v>
+        <v>0.0334767251313975</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07119037811860238</v>
+        <v>0.06665595174430748</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>451073</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>440554</v>
+        <v>439003</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>459823</v>
+        <v>459464</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9564493289581579</v>
+        <v>0.9564493289581576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9341456811299553</v>
+        <v>0.9308559559933733</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9750023656862976</v>
+        <v>0.974241223477912</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>274</v>
@@ -6553,19 +6553,19 @@
         <v>177168</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>171292</v>
+        <v>171448</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>181637</v>
+        <v>181620</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9449107421823401</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9135714183262068</v>
+        <v>0.9144033807101121</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9687487648499863</v>
+        <v>0.9686544551809873</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>744</v>
@@ -6574,19 +6574,19 @@
         <v>628241</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>612187</v>
+        <v>615175</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>636735</v>
+        <v>637044</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9531669375894025</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9288096218813976</v>
+        <v>0.9333440482556922</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9660534318391141</v>
+        <v>0.9665232748686025</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>34900</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22625</v>
+        <v>24582</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48583</v>
+        <v>51233</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03083479291047352</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01998927742814508</v>
+        <v>0.0217185867308739</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04292420798153996</v>
+        <v>0.04526518868967067</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -6699,19 +6699,19 @@
         <v>39884</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29928</v>
+        <v>30184</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51171</v>
+        <v>51969</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04636174482190365</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03478853450474586</v>
+        <v>0.03508627177003278</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05948162794859874</v>
+        <v>0.06040895841355233</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -6720,19 +6720,19 @@
         <v>74784</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59080</v>
+        <v>60099</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94714</v>
+        <v>93708</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03753998317235237</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02965658770196587</v>
+        <v>0.03016820041245126</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04754420038778647</v>
+        <v>0.04703932941534655</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1096943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1083260</v>
+        <v>1080610</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1109218</v>
+        <v>1107261</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9691652070895265</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9570757920184599</v>
+        <v>0.9547348113103288</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9800107225718551</v>
+        <v>0.9782814132691253</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1175</v>
@@ -6770,19 +6770,19 @@
         <v>820400</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>809113</v>
+        <v>808315</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>830356</v>
+        <v>830100</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9536382551780964</v>
+        <v>0.9536382551780963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9405183720514009</v>
+        <v>0.9395910415864478</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9652114654952541</v>
+        <v>0.9649137282299672</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2263</v>
@@ -6791,19 +6791,19 @@
         <v>1917343</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1897413</v>
+        <v>1898419</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1933047</v>
+        <v>1932028</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9624600168276475</v>
+        <v>0.9624600168276476</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9524557996122142</v>
+        <v>0.9529606705846535</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9703434122980342</v>
+        <v>0.9698317995875488</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>19381</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11727</v>
+        <v>11234</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31474</v>
+        <v>31467</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03421218450038897</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02070069533170103</v>
+        <v>0.01983144466206937</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05556090755581292</v>
+        <v>0.0555477471172343</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -6916,19 +6916,19 @@
         <v>38925</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29431</v>
+        <v>28819</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50859</v>
+        <v>50254</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04689034859830328</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03545340415991254</v>
+        <v>0.0347168835867086</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06126598754527213</v>
+        <v>0.06053792997036254</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -6937,19 +6937,19 @@
         <v>58305</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44919</v>
+        <v>45266</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71973</v>
+        <v>73181</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04174793322061431</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03216307144754463</v>
+        <v>0.0324111311124745</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.051534332244336</v>
+        <v>0.05239926565838719</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>547100</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>535007</v>
+        <v>535014</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>554754</v>
+        <v>555247</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9657878154996109</v>
+        <v>0.9657878154996111</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9444390924441869</v>
+        <v>0.9444522528827646</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9792993046682988</v>
+        <v>0.9801685553379306</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1234</v>
@@ -6987,19 +6987,19 @@
         <v>791202</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>779268</v>
+        <v>779873</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>800696</v>
+        <v>801308</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9531096514016968</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9387340124547281</v>
+        <v>0.9394620700296376</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9645465958400875</v>
+        <v>0.9652831164132913</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1761</v>
@@ -7008,19 +7008,19 @@
         <v>1338303</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1324635</v>
+        <v>1323427</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1351689</v>
+        <v>1351342</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9582520667793858</v>
+        <v>0.9582520667793857</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9484656677556641</v>
+        <v>0.9476007343416127</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9678369285524556</v>
+        <v>0.9675888688875256</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>7467</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2272</v>
+        <v>2345</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19081</v>
+        <v>20087</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03147554098979483</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009577993315609889</v>
+        <v>0.009883460924258307</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08043415754727801</v>
+        <v>0.08467491832089763</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -7133,19 +7133,19 @@
         <v>31728</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22432</v>
+        <v>22032</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45853</v>
+        <v>44926</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03763690165504949</v>
+        <v>0.03763690165504948</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02661020995215808</v>
+        <v>0.02613485671046176</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05439360612492495</v>
+        <v>0.05329364379307988</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -7154,19 +7154,19 @@
         <v>39195</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27134</v>
+        <v>27386</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53797</v>
+        <v>54138</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03628380257541584</v>
+        <v>0.03628380257541583</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02511881909836487</v>
+        <v>0.02535238285575974</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04980148926671517</v>
+        <v>0.05011719390765007</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>229761</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>218147</v>
+        <v>217141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234956</v>
+        <v>234883</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9685244590102051</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9195658424527221</v>
+        <v>0.9153250816791025</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9904220066843901</v>
+        <v>0.9901165390757417</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1117</v>
@@ -7204,19 +7204,19 @@
         <v>811265</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>797140</v>
+        <v>798067</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>820561</v>
+        <v>820961</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9623630983449506</v>
+        <v>0.9623630983449503</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9456063938750754</v>
+        <v>0.9467063562069215</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.973389790047842</v>
+        <v>0.9738651432895385</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1224</v>
@@ -7225,19 +7225,19 @@
         <v>1041026</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1026424</v>
+        <v>1026083</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1053087</v>
+        <v>1052835</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9637161974245844</v>
+        <v>0.963716197424584</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9501985107332853</v>
+        <v>0.9498828060923499</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9748811809016356</v>
+        <v>0.9746476171442403</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>115428</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>95227</v>
+        <v>93117</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>141118</v>
+        <v>141769</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.03354488935036659</v>
+        <v>0.03354488935036658</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02767424882788477</v>
+        <v>0.02706119846300977</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04101091637551013</v>
+        <v>0.04119998731390292</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>240</v>
@@ -7350,19 +7350,19 @@
         <v>179679</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>157991</v>
+        <v>158548</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>204604</v>
+        <v>207088</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04946490270694543</v>
+        <v>0.04946490270694542</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04349430803819289</v>
+        <v>0.04364761865371548</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05632654820202108</v>
+        <v>0.05701046038983407</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>341</v>
@@ -7371,19 +7371,19 @@
         <v>295107</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>263373</v>
+        <v>265686</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>329920</v>
+        <v>329041</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04172035469959225</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03723396924185625</v>
+        <v>0.03756106490794438</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04664200181145522</v>
+        <v>0.0465177832598039</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3325565</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3299875</v>
+        <v>3299224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3345766</v>
+        <v>3347876</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9664551106496335</v>
+        <v>0.9664551106496334</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9589890836244899</v>
+        <v>0.9588000126860967</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9723257511721154</v>
+        <v>0.9729388015369902</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4999</v>
@@ -7421,19 +7421,19 @@
         <v>3452776</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3427851</v>
+        <v>3425367</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3474464</v>
+        <v>3473907</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9505350972930544</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9436734517979789</v>
+        <v>0.9429895396101654</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9565056919618069</v>
+        <v>0.9563523813462843</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8196</v>
@@ -7442,19 +7442,19 @@
         <v>6778342</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6743529</v>
+        <v>6744408</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6810076</v>
+        <v>6807763</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9582796453004078</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9533579981885451</v>
+        <v>0.9534822167401961</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9627660307581438</v>
+        <v>0.9624389350920556</v>
       </c>
     </row>
     <row r="24">
